--- a/part_3_cohere/analysis/dense_analysis_results_data_multi_lang.xlsx
+++ b/part_3_cohere/analysis/dense_analysis_results_data_multi_lang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/part_3_cohere/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEEFFB3-BA4D-6E40-9165-5A61A41A058C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18954DD-720C-EB45-BA16-C300DFD1E366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47640" yWindow="500" windowWidth="21000" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54460" yWindow="500" windowWidth="14180" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="avg scores" sheetId="2" r:id="rId1"/>
@@ -1020,16 +1020,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="168" formatCode="0.0000"/>
     </dxf>
@@ -3992,7 +3983,7 @@
     <dataField name="Average of Precision" fld="1" subtotal="average" baseField="0" baseItem="0" numFmtId="169"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="6">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="5" selected="0">
@@ -4005,7 +3996,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4015,7 +4006,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="1">
       <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4299,7 +4290,7 @@
     <dataField name="StdDev of Documents score" fld="0" subtotal="stdDev" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="3">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -4994,7 +4985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6DF36B-E3CE-5943-AC0E-36FFD0030C74}">
   <dimension ref="A3:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -5247,7 +5238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:H1048576"/>
     </sheetView>
   </sheetViews>
